--- a/product/Risikoanalyse.xlsx
+++ b/product/Risikoanalyse.xlsx
@@ -42,33 +42,36 @@
     <t>Kühlschrankhersteller entwickeln eigenes Konkurrenzprodukt</t>
   </si>
   <si>
+    <t>Kühlschrankhersteller als Vertragspartner gewinnen oder App an einen Kühlschrankhersteller verkaufen (Exit-Szenario)</t>
+  </si>
+  <si>
+    <t>Bestandsgefährdendes Risiko</t>
+  </si>
+  <si>
+    <t>In Folge der Entwicklung eines Konkurrenzprodukts könnten die Kühlschrankhersteller die Zusammenarbeit mit uns verweigern. Die geringen Einstiegsbarrieren in den IoT-App-Markt lassen uns dieses Risiko wahrscheinlich einstufen. Der Schaden bei Eintritt dieses Risikos wären enorm. Wärend wir die Mangelnde Zusammenarbeit mit den Herstellern über die manuelle Produkteingabe kompensieren könnten, ständen wir nun auch noch im Wettbewerb mit den Kühlschrankherstellern, die ein Konkurrenzprodukt gemeinsam mit ihren Kühlschränken ausliefern könnten.</t>
+  </si>
+  <si>
+    <t>Hoch</t>
+  </si>
+  <si>
+    <t>Datenbankverlust</t>
+  </si>
+  <si>
+    <t>Übermäßige Ausgaben durch Systembereitstellung</t>
+  </si>
+  <si>
+    <t>Produkte werden nicht richtig erkannt und vom System falsch eingeschätzt</t>
+  </si>
+  <si>
     <t>Proaktive Kommunikation und ausschließlich verschlüsselte Datenspeicherung</t>
   </si>
   <si>
-    <t>Bestandsgefährdendes Risiko</t>
+    <t>Sehr hohes Risiko</t>
   </si>
   <si>
     <t>Unsere Nutzer sind wahrscheinlich wie üblich bei IoT-Anwendungen sehr besorgt um ihre Daten. Ein Datenleak würde das Image unseres Unternehmens zerstören. Eine sinnvolle Fortsetzung des Projekts ist fast undenkbar, da das Vertrauen der Nutzer in die App gebrochen wurde.</t>
   </si>
   <si>
-    <t>Hoch</t>
-  </si>
-  <si>
-    <t>Datenbankverlust</t>
-  </si>
-  <si>
-    <t>Übermäßige Ausgaben durch Systembereitstellung</t>
-  </si>
-  <si>
-    <t>Produkte werden nicht richtig erkannt und vom System falsch eingeschätzt</t>
-  </si>
-  <si>
-    <t>Kühlschrankhersteller als Vertragspartner gewinnen oder App an einen Kühlschrankhersteller verkaufen (Exit-Szenario)</t>
-  </si>
-  <si>
-    <t>In Folge der Entwicklung eines Konkurrenzprodukts könnten die Kühlschrankhersteller die Zusammenarbeit mit uns verweigern. Die geringen Einstiegsbarrieren in den IoT-App-Markt lassen uns dieses Risiko wahrscheinlich einstufen. Der Schaden bei Eintritt dieses Risikos wären enorm. Wärend wir die Mangelnde Zusammenarbeit mit den Herstellern über die manuelle Produkteingabe kompensieren könnten, ständen wir nun auch noch im Wettbewerb mit den Kühlschrankherstellern, die ein Konkurrenzprodukt gemeinsam mit ihren Kühlschränken ausliefern könnten.</t>
-  </si>
-  <si>
     <t>Mittel</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
   </si>
   <si>
     <t>Real-time Berechnung des notwendigen Geldbetrags durch Werbeeinnahmen zu Kompensierung höherer Ausgaben dynamisch in App einfließen lassen</t>
-  </si>
-  <si>
-    <t>Sehr hohes Risiko</t>
   </si>
   <si>
     <t>Ähnlich wie die Überlastung sind übermäßige Ausgaben durch die Systembereitstellung durchaus denkbar, da es noch an Erfahrung fehlt. Der Schaden wäre jedoch höher als bei einer Überlastung, da unsere finanziellen Mittel direkt betroffen sind. Unsere geringe finanzielle Ausstattung als Start-up zwingt uns dieses Risiko als sehr hoch einzustufen.</t>
@@ -460,11 +460,11 @@
     <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -555,7 +555,25 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -818,7 +836,7 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -826,7 +844,7 @@
       </c>
       <c r="F2" s="9"/>
       <c r="J2" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>9</v>
@@ -857,31 +875,31 @@
       </c>
       <c r="F3" s="9"/>
       <c r="J3" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>10</v>
+      <c r="L3" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="18" t="s">
         <v>19</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -890,10 +908,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="19" t="s">
         <v>22</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>23</v>
@@ -906,7 +924,7 @@
       <c r="A5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="20" t="s">
         <v>25</v>
       </c>
@@ -921,8 +939,8 @@
       <c r="K5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="19" t="s">
-        <v>22</v>
+      <c r="L5" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>28</v>
@@ -1003,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>43</v>
@@ -1053,7 +1071,7 @@
       </c>
       <c r="D10" s="38"/>
       <c r="J10" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>51</v>
@@ -1096,7 +1114,7 @@
     <row r="12">
       <c r="A12" s="44"/>
       <c r="B12" s="36" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>56</v>
@@ -4098,6 +4116,7 @@
   <autoFilter ref="$J$1:$N$1000">
     <sortState ref="J1:N1000">
       <sortCondition descending="1" ref="N1:N1000"/>
+      <sortCondition descending="1" sortBy="cellColor" ref="L1:L1000" dxfId="1"/>
     </sortState>
   </autoFilter>
   <mergeCells count="5">
